--- a/tables/Basic_celltype_information.xlsx
+++ b/tables/Basic_celltype_information.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccqq\Desktop\Celltypist\encyclopedia_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccqq\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793B71A-14C8-4783-A324-F699AECBD9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF26C67-6A54-4573-AE86-0A2A9BCC9329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Main!$B$1:$B$88</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Main!$B$1:$B$92</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="349">
   <si>
     <t>B cells</t>
   </si>
@@ -242,9 +242,6 @@
     <t>pDC precursor</t>
   </si>
   <si>
-    <t>Plasmablasts</t>
-  </si>
-  <si>
     <t>Promyelocytes</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
   </si>
   <si>
     <t>precursors of plasmacytoid dendritic cells which have intermixed lymphoid and myeloid origins and give rise to plasmacytoid dendritic cells</t>
-  </si>
-  <si>
-    <t>rapidly dividing and short-lived antibody-secreting plasma cells between post germinal centre B cells and mature plasma cells</t>
   </si>
   <si>
     <t>early granulocyte progenitors in the bone marrow which are derived from the myeloblasts and develop into the myelocytes</t>
@@ -865,21 +859,9 @@
     <t>Curated markers</t>
   </si>
   <si>
-    <t>CD79A, CD79B, CD19</t>
-  </si>
-  <si>
-    <t>FCER2, IGHD, CD22</t>
-  </si>
-  <si>
-    <t>POU2AF1, CD40, BIK</t>
-  </si>
-  <si>
     <t>CR2, CD27, MS4A1</t>
   </si>
   <si>
-    <t>IGHM, MS4A1, TCL1A</t>
-  </si>
-  <si>
     <t>CD24, MYO1C, MS4A1</t>
   </si>
   <si>
@@ -889,9 +871,6 @@
     <t>MME, CD24, IGLL1</t>
   </si>
   <si>
-    <t>CD22, EBF1, IGLL1</t>
-  </si>
-  <si>
     <t>CD22, ZCCHC7, CD24</t>
   </si>
   <si>
@@ -913,33 +892,12 @@
     <t>MKI67, TOP2A, CD3D</t>
   </si>
   <si>
-    <t>CD1C, FCER1A, ITGAX</t>
-  </si>
-  <si>
-    <t>BATF3, CADM1, RAB7B</t>
-  </si>
-  <si>
     <t>CLEC10A, FCER1A, S100A9</t>
   </si>
   <si>
-    <t>CLEC10A, FCER1A, MSLN</t>
-  </si>
-  <si>
-    <t>EBI3, CCR7, FSCN1</t>
-  </si>
-  <si>
-    <t>CLEC10A, KLF4, RNF144B</t>
-  </si>
-  <si>
-    <t>ITGAX, CLEC10A, PCLAF</t>
-  </si>
-  <si>
     <t>FXYD2, HES1, CD99</t>
   </si>
   <si>
-    <t>CD1A, CD1B, SMPD3</t>
-  </si>
-  <si>
     <t>PF4, CMTM5, SELP</t>
   </si>
   <si>
@@ -952,12 +910,6 @@
     <t>HBM, HBQ1, GYPA</t>
   </si>
   <si>
-    <t>CA1, KLF1, GATA2</t>
-  </si>
-  <si>
-    <t>GYPA, GYPB, SLC4A1</t>
-  </si>
-  <si>
     <t>KLF1, KCNH2, HBG1</t>
   </si>
   <si>
@@ -967,9 +919,6 @@
     <t>COL1A1, COL1A2, DCN</t>
   </si>
   <si>
-    <t>S100A8, S100A9, CTSG</t>
-  </si>
-  <si>
     <t>KIT, CPA3, SLC45A3</t>
   </si>
   <si>
@@ -1003,33 +952,12 @@
     <t>GATA3, KLRG1, HPGDS</t>
   </si>
   <si>
-    <t>IL1R1, RORC, TOX</t>
-  </si>
-  <si>
     <t>GNLY, XCL2, NKG7</t>
   </si>
   <si>
     <t>CCL5, GZMK, FCGR3A</t>
   </si>
   <si>
-    <t>KLRB1, TLE1, AREG</t>
-  </si>
-  <si>
-    <t>KLRB1, KIT, ZBTB16</t>
-  </si>
-  <si>
-    <t>LYVE1, KCNJ5, F13A1</t>
-  </si>
-  <si>
-    <t>SEPP1, CSF2RA, GPR34</t>
-  </si>
-  <si>
-    <t>CD5L, TIMD4, CETP</t>
-  </si>
-  <si>
-    <t>C1QA, CD68, APOE</t>
-  </si>
-  <si>
     <t>TPSAB1, TPSB2, CPA3</t>
   </si>
   <si>
@@ -1054,9 +982,6 @@
     <t>LYZ, VCAN, S100A9</t>
   </si>
   <si>
-    <t>CSTA, RNASE2, LYZ</t>
-  </si>
-  <si>
     <t>S100A8, FTL, CSTA</t>
   </si>
   <si>
@@ -1066,70 +991,187 @@
     <t>IL3RA, LILRA4, PLD4</t>
   </si>
   <si>
-    <t>JCHAIN, MZB1, DERL3</t>
-  </si>
-  <si>
     <t>ZNF683, GNG4, PDCD1</t>
   </si>
   <si>
     <t>TOX2, SATB1, CCR9</t>
   </si>
   <si>
-    <t>GZMK, HLA-B, KLRK1</t>
-  </si>
-  <si>
-    <t>PDCD1, ICOS, LPAR6</t>
-  </si>
-  <si>
-    <t>TRDC, TRGC1, CCR9</t>
-  </si>
-  <si>
-    <t>IL7R, IL32, IFNG</t>
-  </si>
-  <si>
-    <t>KLRB1, SLC4A10, NCR3</t>
-  </si>
-  <si>
     <t>GZMK, CD4, IL10</t>
   </si>
   <si>
-    <t>GZMH, KLRD1, CD3G</t>
-  </si>
-  <si>
-    <t>CD3D, CD3G, IL7R</t>
-  </si>
-  <si>
     <t>MIR155HG, BIRC3, SMS</t>
   </si>
   <si>
-    <t>CD8A, CCR7, CD7</t>
-  </si>
-  <si>
-    <t>CCR7, IL7R, CD4</t>
-  </si>
-  <si>
-    <t>GZMK, CD8A, IL32</t>
-  </si>
-  <si>
     <t>PDCD1, CD4, CTLA4</t>
   </si>
   <si>
-    <t>IL32, IFITM1, CD4</t>
-  </si>
-  <si>
-    <t>CTLA4, CCR4, FOXP3</t>
-  </si>
-  <si>
     <t>CD27, CCR7, IKZF4</t>
   </si>
   <si>
     <t>CCL5, CXCR3, TBX21</t>
   </si>
   <si>
-    <t>IL7R, CCR6, KLRB1</t>
-  </si>
-  <si>
     <t>rare plasmacytoid dendritic cell subpopulation which serves as the major source of type I interferons when the body is infected by a virus</t>
+  </si>
+  <si>
+    <t>CD5L, VCAM1, CETP</t>
+  </si>
+  <si>
+    <t>LYVE1, SCIN, F13A1</t>
+  </si>
+  <si>
+    <t>SEPP1, CSF2RA, CD74</t>
+  </si>
+  <si>
+    <t>C1QA, CD68, TREM2</t>
+  </si>
+  <si>
+    <t>Plasma cells</t>
+  </si>
+  <si>
+    <t>B-lymphocyte white blood cells capable of secreting large quantities of immunoglobulins or antibodies</t>
+  </si>
+  <si>
+    <t>JCHAIN, MZB1, XBP1</t>
+  </si>
+  <si>
+    <t>POU2AF1, CD40, SUGCT</t>
+  </si>
+  <si>
+    <t>IGHM, IGHD, TCL1A</t>
+  </si>
+  <si>
+    <t>CTLA4, IL2RA, FOXP3</t>
+  </si>
+  <si>
+    <t>CD8A, CCR7, SELL</t>
+  </si>
+  <si>
+    <t>CCR7, SELL, CD4</t>
+  </si>
+  <si>
+    <t>GZMK, CD8A, NKG7</t>
+  </si>
+  <si>
+    <t>IL32, SELL, CD4</t>
+  </si>
+  <si>
+    <t>NKG7, CD8A, CCL5</t>
+  </si>
+  <si>
+    <t>IL7R, IL32, CD4</t>
+  </si>
+  <si>
+    <t>CD3D, CD3G, CD3E</t>
+  </si>
+  <si>
+    <t>CD79A, MS4A1, CD19</t>
+  </si>
+  <si>
+    <t>PDCD1, ICOS, CXCR5</t>
+  </si>
+  <si>
+    <t>CXCR5, TNFRSF13B, CD22</t>
+  </si>
+  <si>
+    <t>KLRB1, SLC4A10, TRAV1-2</t>
+  </si>
+  <si>
+    <t>TRDC, TRGC1, CCL5</t>
+  </si>
+  <si>
+    <t>S100A9, NAMPT, G0S2</t>
+  </si>
+  <si>
+    <t>IL4I1, RORC, IL7R</t>
+  </si>
+  <si>
+    <t>LST1, KIT, SCN1B</t>
+  </si>
+  <si>
+    <t>IL7R, CCR6, ZBTB16</t>
+  </si>
+  <si>
+    <t>CD22, DNTT, IGLL1</t>
+  </si>
+  <si>
+    <t>NKG7, GNLY, CD8A</t>
+  </si>
+  <si>
+    <t>CD1A, CD8A, SMPD3</t>
+  </si>
+  <si>
+    <t>APOC1, KLF1, GATA2</t>
+  </si>
+  <si>
+    <t>GYPA, GYPB, HBA1</t>
+  </si>
+  <si>
+    <t>CLEC10A, KLF4, AXL</t>
+  </si>
+  <si>
+    <t>CD1C, FCER1A, CLEC10A</t>
+  </si>
+  <si>
+    <t>BATF3, CADM1, CLEC9A</t>
+  </si>
+  <si>
+    <t>CLEC10A, FCER1A, CD1C</t>
+  </si>
+  <si>
+    <t>EBI3, CCR7, CCL19</t>
+  </si>
+  <si>
+    <t>S100A13, TLE1, AREG</t>
+  </si>
+  <si>
+    <t>IRF8, CLEC10A, PCLAF</t>
+  </si>
+  <si>
+    <t>CTSG, MPO, ELANE</t>
+  </si>
+  <si>
+    <t>CD16+ NK cells</t>
+  </si>
+  <si>
+    <t>CD16+ granular lymphocytes that play protective roles against both infectious pathogens and cancer using antibody-dependent cell-mediated cytotoxicity</t>
+  </si>
+  <si>
+    <t>GNLY, FCGR3A, NKG7</t>
+  </si>
+  <si>
+    <t>CD16- NK cells</t>
+  </si>
+  <si>
+    <t>CD16- granular lymphocytes that play protective roles against both infectious pathogens and cancer using antibody-dependent cell-mediated cytotoxicity</t>
+  </si>
+  <si>
+    <t>GNLY, CD160, NKG7</t>
+  </si>
+  <si>
+    <t>Classical monocytes</t>
+  </si>
+  <si>
+    <t>CD14+ myeloid mononuclear recirculating leukocytes that are capable of differentiating into macrophages and myeloid lineage dendritic cells</t>
+  </si>
+  <si>
+    <t>CL:0000860</t>
+  </si>
+  <si>
+    <t>S100A9, CD14, S100A12</t>
+  </si>
+  <si>
+    <t>Non-classical monocytes</t>
+  </si>
+  <si>
+    <t>CD16+ myeloid mononuclear recirculating leukocytes that are capable of differentiating into macrophages and myeloid lineage dendritic cells</t>
+  </si>
+  <si>
+    <t>CL:0000875</t>
+  </si>
+  <si>
+    <t>FCGR3A, C1QA, CX3CR1</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1322,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{385024BA-87ED-4B1E-B4DF-85AE2E3A24A7}" name="final_CL_table" displayName="final_CL_table" ref="B1:E88" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{385024BA-87ED-4B1E-B4DF-85AE2E3A24A7}" name="final_CL_table" displayName="final_CL_table" ref="B1:E92" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{E4227280-E25A-426D-99BE-2B24D315B77F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{CBB70D72-F075-463C-AA4D-F366A7D6495E}" uniqueName="1" name="Column1" queryTableFieldId="6" dataDxfId="2"/>
@@ -1554,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE51D6-A3D9-480C-BC72-12658A2A433B}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,19 +1613,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,13 +1670,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,13 +1687,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,13 +1704,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,13 +1721,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,13 +1738,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,13 +1772,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,13 +1789,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,13 +1806,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,13 +1823,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,13 +1840,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,13 +1857,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,13 +1874,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,13 +1891,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1866,13 +1908,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,13 +1925,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,13 +1959,13 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,13 +1976,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,13 +1993,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,13 +2010,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,13 +2027,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,13 +2044,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,13 +2061,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,13 +2078,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,13 +2095,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,13 +2112,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,13 +2129,13 @@
         <v>32</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2104,13 +2146,13 @@
         <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,13 +2163,13 @@
         <v>34</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,13 +2180,13 @@
         <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2155,13 +2197,13 @@
         <v>36</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2172,13 +2214,13 @@
         <v>37</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,13 +2248,13 @@
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,13 +2265,13 @@
         <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,13 +2282,13 @@
         <v>42</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,13 +2299,13 @@
         <v>43</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,13 +2316,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,13 +2333,13 @@
         <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,13 +2350,13 @@
         <v>45</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,13 +2367,13 @@
         <v>46</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,13 +2384,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,13 +2401,13 @@
         <v>48</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,13 +2418,13 @@
         <v>49</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,13 +2435,13 @@
         <v>50</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2407,16 +2449,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2424,67 +2466,67 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>338</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>53</v>
+      <c r="A52" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,16 +2534,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,560 +2551,628 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>59</v>
+      <c r="A58" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>345</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>70</v>
+      <c r="A69" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>70</v>
+      <c r="A70" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>70</v>
+      <c r="A71" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>70</v>
+      <c r="A72" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
